--- a/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA170740-7822-49DF-8F30-4A523AB1C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC51D73-0814-40F4-B78B-3EE8ABA6F709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B2A1C4-0A74-4412-9040-647023CE561A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A3B007F-E79B-4876-AAD2-E1163E92F814}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="274">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -98,28 +98,28 @@
     <t>13,81%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -128,28 +128,28 @@
     <t>58,5%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>64,75%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -158,28 +158,28 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -188,658 +188,673 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB598B6C-7369-47FB-85B2-9B2BECA7E661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E23F94-21BB-42A0-95C4-6C736193C50C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1615,10 @@
         <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1612,13 +1627,13 @@
         <v>4846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1648,13 @@
         <v>101982</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>243</v>
@@ -1648,13 +1663,13 @@
         <v>130733</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>361</v>
@@ -1663,18 +1678,18 @@
         <v>232715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1692,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1701,13 +1716,13 @@
         <v>2218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1716,13 +1731,13 @@
         <v>2218</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1752,13 @@
         <v>39545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1752,13 +1767,13 @@
         <v>43858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -1767,13 +1782,13 @@
         <v>83403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1803,13 @@
         <v>360345</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>631</v>
@@ -1803,13 +1818,13 @@
         <v>369006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1037</v>
@@ -1818,13 +1833,13 @@
         <v>729350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1854,13 @@
         <v>141529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -1854,13 +1869,13 @@
         <v>170936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -1869,13 +1884,13 @@
         <v>312465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1905,13 @@
         <v>8404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1905,13 +1920,13 @@
         <v>5010</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1920,13 +1935,13 @@
         <v>13414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1956,13 @@
         <v>549823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>993</v>
@@ -1956,13 +1971,13 @@
         <v>591027</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1605</v>
@@ -1971,18 +1986,18 @@
         <v>1140850</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1994,13 +2009,13 @@
         <v>10444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2009,13 +2024,13 @@
         <v>9899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -2024,13 +2039,13 @@
         <v>20343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2060,13 @@
         <v>51041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2060,13 +2075,13 @@
         <v>98036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -2075,13 +2090,13 @@
         <v>149078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2111,13 @@
         <v>594974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>920</v>
@@ -2111,13 +2126,13 @@
         <v>626942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>1525</v>
@@ -2126,13 +2141,13 @@
         <v>1221917</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2162,13 @@
         <v>312252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -2162,13 +2177,13 @@
         <v>304799</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>699</v>
@@ -2177,13 +2192,13 @@
         <v>617051</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2213,13 @@
         <v>70536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2213,13 +2228,13 @@
         <v>18857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2228,13 +2243,13 @@
         <v>89393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2264,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>1515</v>
@@ -2264,13 +2279,13 @@
         <v>1058534</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>2479</v>
@@ -2279,18 +2294,18 @@
         <v>2097782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2302,13 +2317,13 @@
         <v>3861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2317,13 +2332,13 @@
         <v>7992</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2332,13 +2347,13 @@
         <v>11853</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2368,13 @@
         <v>61044</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -2368,13 +2383,13 @@
         <v>72696</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -2383,13 +2398,13 @@
         <v>133740</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2419,13 @@
         <v>423175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>573</v>
@@ -2419,13 +2434,13 @@
         <v>439349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>940</v>
@@ -2434,13 +2449,13 @@
         <v>862523</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2470,13 @@
         <v>221492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>341</v>
@@ -2470,13 +2485,13 @@
         <v>347001</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>573</v>
@@ -2485,13 +2500,13 @@
         <v>568493</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2521,13 @@
         <v>19200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2521,13 +2536,13 @@
         <v>7333</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2536,13 +2551,13 @@
         <v>26532</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2572,13 @@
         <v>728772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1047</v>
@@ -2572,13 +2587,13 @@
         <v>874371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1723</v>
@@ -2587,18 +2602,18 @@
         <v>1603142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2610,13 +2625,13 @@
         <v>14619</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2625,13 +2640,13 @@
         <v>16964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2640,13 +2655,13 @@
         <v>31584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2676,13 @@
         <v>107072</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>
@@ -2676,13 +2691,13 @@
         <v>155817</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>344</v>
@@ -2691,13 +2706,13 @@
         <v>262889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2727,13 @@
         <v>528462</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>884</v>
@@ -2727,13 +2742,13 @@
         <v>638129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>1437</v>
@@ -2742,13 +2757,13 @@
         <v>1166590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2778,13 @@
         <v>290771</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>390</v>
@@ -2778,13 +2793,13 @@
         <v>311813</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>680</v>
@@ -2793,13 +2808,13 @@
         <v>602583</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2829,13 @@
         <v>24479</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -2829,13 +2844,13 @@
         <v>24269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -2844,13 +2859,13 @@
         <v>48749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2880,13 @@
         <v>965403</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>1557</v>
@@ -2880,13 +2895,13 @@
         <v>1146992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>2563</v>
@@ -2895,13 +2910,13 @@
         <v>2112395</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2933,13 @@
         <v>28924</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -2933,13 +2948,13 @@
         <v>39570</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -2948,13 +2963,13 @@
         <v>68494</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2984,13 @@
         <v>272787</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>581</v>
@@ -2984,13 +2999,13 @@
         <v>387218</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>869</v>
@@ -2999,13 +3014,13 @@
         <v>660005</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3035,13 @@
         <v>1966612</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>3181</v>
@@ -3035,13 +3050,13 @@
         <v>2164455</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>5186</v>
@@ -3050,13 +3065,13 @@
         <v>4131067</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3086,13 @@
         <v>992794</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>1449</v>
@@ -3086,13 +3101,13 @@
         <v>1151591</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>2431</v>
@@ -3101,13 +3116,13 @@
         <v>2144384</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3137,13 @@
         <v>124112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>86</v>
@@ -3137,13 +3152,13 @@
         <v>58822</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>155</v>
@@ -3152,13 +3167,13 @@
         <v>182933</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3188,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>5355</v>
@@ -3188,13 +3203,13 @@
         <v>3801656</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>8731</v>
@@ -3203,18 +3218,18 @@
         <v>7186884</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC51D73-0814-40F4-B78B-3EE8ABA6F709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF56E05-9A2A-4925-A245-1565DCA9FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A3B007F-E79B-4876-AAD2-E1163E92F814}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F10AD369-1900-4770-9747-BAEA3451A0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -212,7 +212,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -344,7 +344,7 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -476,7 +476,7 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E23F94-21BB-42A0-95C4-6C736193C50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3913073-D391-43D5-BD55-8BCDA54C4652}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF56E05-9A2A-4925-A245-1565DCA9FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7E9A38-DF84-44E1-917F-E717A0D90006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F10AD369-1900-4770-9747-BAEA3451A0A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E745E268-CABE-4358-9464-48736D5DE23C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>7,15%</t>
+    <t>7,87%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,76%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -98,28 +98,28 @@
     <t>13,81%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -128,28 +128,28 @@
     <t>58,5%</t>
   </si>
   <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>64,75%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -158,28 +158,28 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -188,25 +188,22 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -221,640 +218,628 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,09%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1269,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3913073-D391-43D5-BD55-8BCDA54C4652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38473B16-EDF9-464D-939E-ABAE47645B5D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,10 +1600,10 @@
         <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1627,13 +1612,13 @@
         <v>4846</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1633,13 @@
         <v>101982</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>243</v>
@@ -1663,13 +1648,13 @@
         <v>130733</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>361</v>
@@ -1678,18 +1663,18 @@
         <v>232715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1707,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1716,13 +1701,13 @@
         <v>2218</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1731,13 +1716,13 @@
         <v>2218</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,13 +1737,13 @@
         <v>39545</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -1767,13 +1752,13 @@
         <v>43858</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -1782,13 +1767,13 @@
         <v>83403</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,13 +1788,13 @@
         <v>360345</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>631</v>
@@ -1818,13 +1803,13 @@
         <v>369006</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1037</v>
@@ -1833,13 +1818,13 @@
         <v>729350</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,13 +1839,13 @@
         <v>141529</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -1869,13 +1854,13 @@
         <v>170936</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -1884,13 +1869,13 @@
         <v>312465</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,13 +1890,13 @@
         <v>8404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1920,13 +1905,13 @@
         <v>5010</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1935,13 +1920,13 @@
         <v>13414</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1941,13 @@
         <v>549823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>993</v>
@@ -1971,13 +1956,13 @@
         <v>591027</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1605</v>
@@ -1986,18 +1971,18 @@
         <v>1140850</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2009,13 +1994,13 @@
         <v>10444</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2024,13 +2009,13 @@
         <v>9899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -2039,13 +2024,13 @@
         <v>20343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2045,13 @@
         <v>51041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -2075,13 +2060,13 @@
         <v>98036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -2090,13 +2075,13 @@
         <v>149078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2096,13 @@
         <v>594974</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>920</v>
@@ -2126,13 +2111,13 @@
         <v>626942</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>1525</v>
@@ -2141,13 +2126,13 @@
         <v>1221917</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2147,13 @@
         <v>312252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -2177,13 +2162,13 @@
         <v>304799</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>699</v>
@@ -2192,13 +2177,13 @@
         <v>617051</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2198,13 @@
         <v>70536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2228,13 +2213,13 @@
         <v>18857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2243,13 +2228,13 @@
         <v>89393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2249,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>1515</v>
@@ -2279,13 +2264,13 @@
         <v>1058534</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>2479</v>
@@ -2294,18 +2279,18 @@
         <v>2097782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2317,13 +2302,13 @@
         <v>3861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2332,13 +2317,13 @@
         <v>7992</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2347,13 +2332,13 @@
         <v>11853</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2353,13 @@
         <v>61044</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -2383,13 +2368,13 @@
         <v>72696</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>161</v>
@@ -2398,13 +2383,13 @@
         <v>133740</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2404,13 @@
         <v>423175</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>573</v>
@@ -2434,13 +2419,13 @@
         <v>439349</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>940</v>
@@ -2449,13 +2434,13 @@
         <v>862523</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2455,13 @@
         <v>221492</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>341</v>
@@ -2485,13 +2470,13 @@
         <v>347001</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>573</v>
@@ -2500,13 +2485,13 @@
         <v>568493</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2506,13 @@
         <v>19200</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2536,13 +2521,13 @@
         <v>7333</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2551,13 +2536,13 @@
         <v>26532</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2557,13 @@
         <v>728772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>1047</v>
@@ -2587,13 +2572,13 @@
         <v>874371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1723</v>
@@ -2602,18 +2587,18 @@
         <v>1603142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2625,13 +2610,13 @@
         <v>14619</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2640,13 +2625,13 @@
         <v>16964</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2655,13 +2640,13 @@
         <v>31584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2661,13 @@
         <v>107072</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>223</v>
@@ -2691,13 +2676,13 @@
         <v>155817</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>344</v>
@@ -2706,13 +2691,13 @@
         <v>262889</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2712,13 @@
         <v>528462</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>884</v>
@@ -2742,13 +2727,13 @@
         <v>638129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>1437</v>
@@ -2757,13 +2742,13 @@
         <v>1166590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2763,13 @@
         <v>290771</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>390</v>
@@ -2793,13 +2778,13 @@
         <v>311813</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>680</v>
@@ -2808,13 +2793,13 @@
         <v>602583</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2814,13 @@
         <v>24479</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -2844,13 +2829,13 @@
         <v>24269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -2859,13 +2844,13 @@
         <v>48749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2865,13 @@
         <v>965403</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>1557</v>
@@ -2895,13 +2880,13 @@
         <v>1146992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>2563</v>
@@ -2910,13 +2895,13 @@
         <v>2112395</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2918,13 @@
         <v>28924</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -2948,13 +2933,13 @@
         <v>39570</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="M34" s="7">
         <v>90</v>
@@ -2963,13 +2948,13 @@
         <v>68494</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2969,13 @@
         <v>272787</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="H35" s="7">
         <v>581</v>
@@ -2999,13 +2984,13 @@
         <v>387218</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>869</v>
@@ -3014,13 +2999,13 @@
         <v>660005</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3020,13 @@
         <v>1966612</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>3181</v>
@@ -3050,13 +3035,13 @@
         <v>2164455</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="M36" s="7">
         <v>5186</v>
@@ -3065,13 +3050,13 @@
         <v>4131067</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3071,13 @@
         <v>992794</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>1449</v>
@@ -3101,13 +3086,13 @@
         <v>1151591</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>2431</v>
@@ -3116,13 +3101,13 @@
         <v>2144384</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3122,13 @@
         <v>124112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H38" s="7">
         <v>86</v>
@@ -3152,13 +3137,13 @@
         <v>58822</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>155</v>
@@ -3167,13 +3152,13 @@
         <v>182933</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3173,13 @@
         <v>3385228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>5355</v>
@@ -3203,13 +3188,13 @@
         <v>3801656</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>8731</v>
@@ -3218,18 +3203,18 @@
         <v>7186884</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7E9A38-DF84-44E1-917F-E717A0D90006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1398981A-73EE-4B6C-905F-178E618144C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E745E268-CABE-4358-9464-48736D5DE23C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90A7E31F-7B86-44A4-B252-9AC7EE87C6C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="234">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -77,769 +77,664 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>A diario</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,8 +1149,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38473B16-EDF9-464D-939E-ABAE47645B5D}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C46DA4-EC2D-476B-B1FC-4F8BB80232C3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1387,238 +1282,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2497</v>
+        <v>4362</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>2497</v>
+        <v>4362</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>14084</v>
+        <v>53239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
-        <v>16811</v>
+        <v>56874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="N5" s="7">
-        <v>30895</v>
+        <v>110113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="D6" s="7">
-        <v>59656</v>
+        <v>408113</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>804</v>
       </c>
       <c r="I6" s="7">
-        <v>91030</v>
+        <v>433623</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>247</v>
+        <v>1284</v>
       </c>
       <c r="N6" s="7">
-        <v>150687</v>
+        <v>841737</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
-        <v>26749</v>
+        <v>164463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>17042</v>
+        <v>171098</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="N7" s="7">
-        <v>43790</v>
+        <v>335561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>1493</v>
+        <v>9626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
       <c r="I8" s="7">
-        <v>3353</v>
+        <v>7998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>4846</v>
+        <v>17624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,306 +1522,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D9" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I9" s="7">
-        <v>130733</v>
+        <v>673955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>361</v>
+        <v>1966</v>
       </c>
       <c r="N9" s="7">
-        <v>232715</v>
+        <v>1309397</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>10294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>2218</v>
+        <v>9140</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>2218</v>
+        <v>19433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>39545</v>
+        <v>48507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>43858</v>
+        <v>87929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="N11" s="7">
-        <v>83403</v>
+        <v>136436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>406</v>
+        <v>605</v>
       </c>
       <c r="D12" s="7">
-        <v>360345</v>
+        <v>576993</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>631</v>
+        <v>920</v>
       </c>
       <c r="I12" s="7">
-        <v>369006</v>
+        <v>571729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>1037</v>
+        <v>1525</v>
       </c>
       <c r="N12" s="7">
-        <v>729350</v>
+        <v>1148721</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>141529</v>
+        <v>295028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="I13" s="7">
-        <v>170936</v>
+        <v>271604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>413</v>
+        <v>699</v>
       </c>
       <c r="N13" s="7">
-        <v>312465</v>
+        <v>566632</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>8404</v>
+        <v>262042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>5010</v>
+        <v>16830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>13414</v>
+        <v>278872</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,306 +1830,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D15" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I15" s="7">
-        <v>591027</v>
+        <v>957231</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1605</v>
+        <v>2479</v>
       </c>
       <c r="N15" s="7">
-        <v>1140850</v>
+        <v>2150095</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>10444</v>
+        <v>3673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>9899</v>
+        <v>7453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>20343</v>
+        <v>11126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>51041</v>
+        <v>59413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>98036</v>
+        <v>69514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>149078</v>
+        <v>128927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>605</v>
+        <v>367</v>
       </c>
       <c r="D18" s="7">
-        <v>594974</v>
+        <v>411406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
-        <v>920</v>
+        <v>573</v>
       </c>
       <c r="I18" s="7">
-        <v>626942</v>
+        <v>427523</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
-        <v>1525</v>
+        <v>940</v>
       </c>
       <c r="N18" s="7">
-        <v>1221917</v>
+        <v>838930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>312252</v>
+        <v>212796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="I19" s="7">
-        <v>304799</v>
+        <v>422258</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
-        <v>699</v>
+        <v>573</v>
       </c>
       <c r="N19" s="7">
-        <v>617051</v>
+        <v>635054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>70536</v>
+        <v>17391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>18857</v>
+        <v>6618</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>89393</v>
+        <v>24009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,306 +2138,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I21" s="7">
-        <v>1058534</v>
+        <v>933366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N21" s="7">
-        <v>2097782</v>
+        <v>1638046</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>3861</v>
+        <v>14131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>7992</v>
+        <v>15756</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>11853</v>
+        <v>29887</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D23" s="7">
-        <v>61044</v>
+        <v>103571</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="I23" s="7">
-        <v>72696</v>
+        <v>142182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>161</v>
+        <v>344</v>
       </c>
       <c r="N23" s="7">
-        <v>133740</v>
+        <v>245753</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>367</v>
+        <v>553</v>
       </c>
       <c r="D24" s="7">
-        <v>423175</v>
+        <v>512044</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
-        <v>573</v>
+        <v>884</v>
       </c>
       <c r="I24" s="7">
-        <v>439349</v>
+        <v>580782</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
-        <v>940</v>
+        <v>1437</v>
       </c>
       <c r="N24" s="7">
-        <v>862523</v>
+        <v>1092826</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="D25" s="7">
-        <v>221492</v>
+        <v>274189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="I25" s="7">
-        <v>347001</v>
+        <v>331048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
-        <v>573</v>
+        <v>680</v>
       </c>
       <c r="N25" s="7">
-        <v>568493</v>
+        <v>605237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>19200</v>
+        <v>22896</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>7333</v>
+        <v>21980</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N26" s="7">
-        <v>26532</v>
+        <v>44876</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,306 +2446,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D27" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>1047</v>
+        <v>1557</v>
       </c>
       <c r="I27" s="7">
-        <v>874371</v>
+        <v>1091747</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1723</v>
+        <v>2563</v>
       </c>
       <c r="N27" s="7">
-        <v>1603142</v>
+        <v>2018578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D28" s="7">
-        <v>14619</v>
+        <v>28097</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>16964</v>
+        <v>36710</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="N28" s="7">
-        <v>31584</v>
+        <v>64807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="D29" s="7">
-        <v>107072</v>
+        <v>264731</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
-        <v>223</v>
+        <v>581</v>
       </c>
       <c r="I29" s="7">
-        <v>155817</v>
+        <v>356498</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>344</v>
+        <v>869</v>
       </c>
       <c r="N29" s="7">
-        <v>262889</v>
+        <v>621230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>553</v>
+        <v>2005</v>
       </c>
       <c r="D30" s="7">
-        <v>528462</v>
+        <v>1908556</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
-        <v>884</v>
+        <v>3181</v>
       </c>
       <c r="I30" s="7">
-        <v>638129</v>
+        <v>2013657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
-        <v>1437</v>
+        <v>5186</v>
       </c>
       <c r="N30" s="7">
-        <v>1166590</v>
+        <v>3922213</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>290</v>
+        <v>982</v>
       </c>
       <c r="D31" s="7">
-        <v>290771</v>
+        <v>946477</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
-        <v>390</v>
+        <v>1449</v>
       </c>
       <c r="I31" s="7">
-        <v>311813</v>
+        <v>1196008</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
-        <v>680</v>
+        <v>2431</v>
       </c>
       <c r="N31" s="7">
-        <v>602583</v>
+        <v>2142484</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7">
-        <v>24479</v>
+        <v>311956</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I32" s="7">
-        <v>24269</v>
+        <v>53426</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="N32" s="7">
-        <v>48749</v>
+        <v>365382</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,370 +2754,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D33" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>1557</v>
+        <v>5355</v>
       </c>
       <c r="I33" s="7">
-        <v>1146992</v>
+        <v>3656299</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>2563</v>
+        <v>8731</v>
       </c>
       <c r="N33" s="7">
-        <v>2112395</v>
+        <v>7116116</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>32</v>
-      </c>
-      <c r="D34" s="7">
-        <v>28924</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="7">
-        <v>58</v>
-      </c>
-      <c r="I34" s="7">
-        <v>39570</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M34" s="7">
-        <v>90</v>
-      </c>
-      <c r="N34" s="7">
-        <v>68494</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="A34" t="s">
         <v>233</v>
       </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>288</v>
-      </c>
-      <c r="D35" s="7">
-        <v>272787</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" s="7">
-        <v>581</v>
-      </c>
-      <c r="I35" s="7">
-        <v>387218</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M35" s="7">
-        <v>869</v>
-      </c>
-      <c r="N35" s="7">
-        <v>660005</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2005</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1966612</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3181</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2164455</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M36" s="7">
-        <v>5186</v>
-      </c>
-      <c r="N36" s="7">
-        <v>4131067</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="7">
-        <v>982</v>
-      </c>
-      <c r="D37" s="7">
-        <v>992794</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1449</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1151591</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2431</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2144384</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="7">
-        <v>69</v>
-      </c>
-      <c r="D38" s="7">
-        <v>124112</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="7">
-        <v>86</v>
-      </c>
-      <c r="I38" s="7">
-        <v>58822</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M38" s="7">
-        <v>155</v>
-      </c>
-      <c r="N38" s="7">
-        <v>182933</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3801656</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7186884</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
